--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Bgn-Fgfr3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Bgn-Fgfr3.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.8838864715712</v>
+        <v>51.10859366666667</v>
       </c>
       <c r="H2">
-        <v>20.8838864715712</v>
+        <v>153.325781</v>
       </c>
       <c r="I2">
-        <v>0.01208272844004786</v>
+        <v>0.02866730932766026</v>
       </c>
       <c r="J2">
-        <v>0.01208272844004786</v>
+        <v>0.02866730932766026</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.0215948300135</v>
+        <v>4.166450999999999</v>
       </c>
       <c r="N2">
-        <v>4.0215948300135</v>
+        <v>12.499353</v>
       </c>
       <c r="O2">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="P2">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="Q2">
-        <v>83.9865298646596</v>
+        <v>212.941451191077</v>
       </c>
       <c r="R2">
-        <v>83.9865298646596</v>
+        <v>1916.473060719693</v>
       </c>
       <c r="S2">
-        <v>0.008894120722032941</v>
+        <v>0.02043106044401275</v>
       </c>
       <c r="T2">
-        <v>0.008894120722032941</v>
+        <v>0.02043106044401275</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.8838864715712</v>
+        <v>51.10859366666667</v>
       </c>
       <c r="H3">
-        <v>20.8838864715712</v>
+        <v>153.325781</v>
       </c>
       <c r="I3">
-        <v>0.01208272844004786</v>
+        <v>0.02866730932766026</v>
       </c>
       <c r="J3">
-        <v>0.01208272844004786</v>
+        <v>0.02866730932766026</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.644301296230715</v>
+        <v>0.6655859999999999</v>
       </c>
       <c r="N3">
-        <v>0.644301296230715</v>
+        <v>1.996758</v>
       </c>
       <c r="O3">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="P3">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="Q3">
-        <v>13.45551512396842</v>
+        <v>34.017164424222</v>
       </c>
       <c r="R3">
-        <v>13.45551512396842</v>
+        <v>306.154479817998</v>
       </c>
       <c r="S3">
-        <v>0.001424930594019848</v>
+        <v>0.003263839607543367</v>
       </c>
       <c r="T3">
-        <v>0.001424930594019848</v>
+        <v>0.003263839607543367</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.8838864715712</v>
+        <v>51.10859366666667</v>
       </c>
       <c r="H4">
-        <v>20.8838864715712</v>
+        <v>153.325781</v>
       </c>
       <c r="I4">
-        <v>0.01208272844004786</v>
+        <v>0.02866730932766026</v>
       </c>
       <c r="J4">
-        <v>0.01208272844004786</v>
+        <v>0.02866730932766026</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.797470039517346</v>
+        <v>1.01401</v>
       </c>
       <c r="N4">
-        <v>0.797470039517346</v>
+        <v>3.04203</v>
       </c>
       <c r="O4">
-        <v>0.1459667932409548</v>
+        <v>0.1734522490154458</v>
       </c>
       <c r="P4">
-        <v>0.1459667932409548</v>
+        <v>0.1734522490154458</v>
       </c>
       <c r="Q4">
-        <v>16.65427376975965</v>
+        <v>51.82462506393667</v>
       </c>
       <c r="R4">
-        <v>16.65427376975965</v>
+        <v>466.42162557543</v>
       </c>
       <c r="S4">
-        <v>0.001763677123995071</v>
+        <v>0.00497240927610414</v>
       </c>
       <c r="T4">
-        <v>0.001763677123995071</v>
+        <v>0.004972409276104139</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1522.98205624632</v>
+        <v>1523.209716666667</v>
       </c>
       <c r="H5">
-        <v>1522.98205624632</v>
+        <v>4569.62915</v>
       </c>
       <c r="I5">
-        <v>0.8811472246672065</v>
+        <v>0.854383206146807</v>
       </c>
       <c r="J5">
-        <v>0.8811472246672065</v>
+        <v>0.854383206146807</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.0215948300135</v>
+        <v>4.166450999999999</v>
       </c>
       <c r="N5">
-        <v>4.0215948300135</v>
+        <v>12.499353</v>
       </c>
       <c r="O5">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="P5">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="Q5">
-        <v>6124.81676360353</v>
+        <v>6346.378647215549</v>
       </c>
       <c r="R5">
-        <v>6124.81676360353</v>
+        <v>57117.40782493995</v>
       </c>
       <c r="S5">
-        <v>0.6486142454463185</v>
+        <v>0.6089150093445315</v>
       </c>
       <c r="T5">
-        <v>0.6486142454463185</v>
+        <v>0.6089150093445315</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1522.98205624632</v>
+        <v>1523.209716666667</v>
       </c>
       <c r="H6">
-        <v>1522.98205624632</v>
+        <v>4569.62915</v>
       </c>
       <c r="I6">
-        <v>0.8811472246672065</v>
+        <v>0.854383206146807</v>
       </c>
       <c r="J6">
-        <v>0.8811472246672065</v>
+        <v>0.854383206146807</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.644301296230715</v>
+        <v>0.6655859999999999</v>
       </c>
       <c r="N6">
-        <v>0.644301296230715</v>
+        <v>1.996758</v>
       </c>
       <c r="O6">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="P6">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="Q6">
-        <v>981.2593129756237</v>
+        <v>1013.8270624773</v>
       </c>
       <c r="R6">
-        <v>981.2593129756237</v>
+        <v>9124.443562295699</v>
       </c>
       <c r="S6">
-        <v>0.1039147444630486</v>
+        <v>0.09727350817508457</v>
       </c>
       <c r="T6">
-        <v>0.1039147444630486</v>
+        <v>0.09727350817508457</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1522.98205624632</v>
+        <v>1523.209716666667</v>
       </c>
       <c r="H7">
-        <v>1522.98205624632</v>
+        <v>4569.62915</v>
       </c>
       <c r="I7">
-        <v>0.8811472246672065</v>
+        <v>0.854383206146807</v>
       </c>
       <c r="J7">
-        <v>0.8811472246672065</v>
+        <v>0.854383206146807</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.797470039517346</v>
+        <v>1.01401</v>
       </c>
       <c r="N7">
-        <v>0.797470039517346</v>
+        <v>3.04203</v>
       </c>
       <c r="O7">
-        <v>0.1459667932409548</v>
+        <v>0.1734522490154458</v>
       </c>
       <c r="P7">
-        <v>0.1459667932409548</v>
+        <v>0.1734522490154458</v>
       </c>
       <c r="Q7">
-        <v>1214.532560578962</v>
+        <v>1544.549884797167</v>
       </c>
       <c r="R7">
-        <v>1214.532560578962</v>
+        <v>13900.9489631745</v>
       </c>
       <c r="S7">
-        <v>0.1286182347578393</v>
+        <v>0.148194688627191</v>
       </c>
       <c r="T7">
-        <v>0.1286182347578393</v>
+        <v>0.1481946886271909</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.21520509437791</v>
+        <v>1.839165666666666</v>
       </c>
       <c r="H8">
-        <v>1.21520509437791</v>
+        <v>5.517497</v>
       </c>
       <c r="I8">
-        <v>0.0007030776179672626</v>
+        <v>0.001031605984211079</v>
       </c>
       <c r="J8">
-        <v>0.0007030776179672626</v>
+        <v>0.00103160598421108</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.0215948300135</v>
+        <v>4.166450999999999</v>
       </c>
       <c r="N8">
-        <v>4.0215948300135</v>
+        <v>12.499353</v>
       </c>
       <c r="O8">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="P8">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="Q8">
-        <v>4.887062524956271</v>
+        <v>7.662793631048999</v>
       </c>
       <c r="R8">
-        <v>4.887062524956271</v>
+        <v>68.96514267944099</v>
       </c>
       <c r="S8">
-        <v>0.0005175368495772814</v>
+        <v>0.0007352208739550394</v>
       </c>
       <c r="T8">
-        <v>0.0005175368495772814</v>
+        <v>0.0007352208739550396</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.21520509437791</v>
+        <v>1.839165666666666</v>
       </c>
       <c r="H9">
-        <v>1.21520509437791</v>
+        <v>5.517497</v>
       </c>
       <c r="I9">
-        <v>0.0007030776179672626</v>
+        <v>0.001031605984211079</v>
       </c>
       <c r="J9">
-        <v>0.0007030776179672626</v>
+        <v>0.00103160598421108</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.644301296230715</v>
+        <v>0.6655859999999999</v>
       </c>
       <c r="N9">
-        <v>0.644301296230715</v>
+        <v>1.996758</v>
       </c>
       <c r="O9">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="P9">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="Q9">
-        <v>0.7829582174938557</v>
+        <v>1.224122919414</v>
       </c>
       <c r="R9">
-        <v>0.7829582174938557</v>
+        <v>11.017106274726</v>
       </c>
       <c r="S9">
-        <v>8.291478309581068E-05</v>
+        <v>0.0001174507321968358</v>
       </c>
       <c r="T9">
-        <v>8.291478309581068E-05</v>
+        <v>0.0001174507321968358</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.21520509437791</v>
+        <v>1.839165666666666</v>
       </c>
       <c r="H10">
-        <v>1.21520509437791</v>
+        <v>5.517497</v>
       </c>
       <c r="I10">
-        <v>0.0007030776179672626</v>
+        <v>0.001031605984211079</v>
       </c>
       <c r="J10">
-        <v>0.0007030776179672626</v>
+        <v>0.00103160598421108</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.797470039517346</v>
+        <v>1.01401</v>
       </c>
       <c r="N10">
-        <v>0.797470039517346</v>
+        <v>3.04203</v>
       </c>
       <c r="O10">
-        <v>0.1459667932409548</v>
+        <v>0.1734522490154458</v>
       </c>
       <c r="P10">
-        <v>0.1459667932409548</v>
+        <v>0.1734522490154458</v>
       </c>
       <c r="Q10">
-        <v>0.969089654635232</v>
+        <v>1.864932377656667</v>
       </c>
       <c r="R10">
-        <v>0.969089654635232</v>
+        <v>16.78439139891</v>
       </c>
       <c r="S10">
-        <v>0.0001026259852941704</v>
+        <v>0.0001789343780592043</v>
       </c>
       <c r="T10">
-        <v>0.0001026259852941704</v>
+        <v>0.0001789343780592043</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.08207258961548</v>
+        <v>8.497059666666667</v>
       </c>
       <c r="H11">
-        <v>6.08207258961548</v>
+        <v>25.491179</v>
       </c>
       <c r="I11">
-        <v>0.003518886752857052</v>
+        <v>0.004766083751562676</v>
       </c>
       <c r="J11">
-        <v>0.003518886752857052</v>
+        <v>0.004766083751562675</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.0215948300135</v>
+        <v>4.166450999999999</v>
       </c>
       <c r="N11">
-        <v>4.0215948300135</v>
+        <v>12.499353</v>
       </c>
       <c r="O11">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="P11">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="Q11">
-        <v>24.45963168216444</v>
+        <v>35.402582745243</v>
       </c>
       <c r="R11">
-        <v>24.45963168216444</v>
+        <v>318.623244707187</v>
       </c>
       <c r="S11">
-        <v>0.002590259620777271</v>
+        <v>0.003396766124662026</v>
       </c>
       <c r="T11">
-        <v>0.002590259620777271</v>
+        <v>0.003396766124662025</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.08207258961548</v>
+        <v>8.497059666666667</v>
       </c>
       <c r="H12">
-        <v>6.08207258961548</v>
+        <v>25.491179</v>
       </c>
       <c r="I12">
-        <v>0.003518886752857052</v>
+        <v>0.004766083751562676</v>
       </c>
       <c r="J12">
-        <v>0.003518886752857052</v>
+        <v>0.004766083751562675</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.644301296230715</v>
+        <v>0.6655859999999999</v>
       </c>
       <c r="N12">
-        <v>0.644301296230715</v>
+        <v>1.996758</v>
       </c>
       <c r="O12">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="P12">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="Q12">
-        <v>3.918687253258555</v>
+        <v>5.655523955297999</v>
       </c>
       <c r="R12">
-        <v>3.918687253258555</v>
+        <v>50.89971559768199</v>
       </c>
       <c r="S12">
-        <v>0.0004149865169871609</v>
+        <v>0.0005426296811961304</v>
       </c>
       <c r="T12">
-        <v>0.0004149865169871609</v>
+        <v>0.0005426296811961303</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.08207258961548</v>
+        <v>8.497059666666667</v>
       </c>
       <c r="H13">
-        <v>6.08207258961548</v>
+        <v>25.491179</v>
       </c>
       <c r="I13">
-        <v>0.003518886752857052</v>
+        <v>0.004766083751562676</v>
       </c>
       <c r="J13">
-        <v>0.003518886752857052</v>
+        <v>0.004766083751562675</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.797470039517346</v>
+        <v>1.01401</v>
       </c>
       <c r="N13">
-        <v>0.797470039517346</v>
+        <v>3.04203</v>
       </c>
       <c r="O13">
-        <v>0.1459667932409548</v>
+        <v>0.1734522490154458</v>
       </c>
       <c r="P13">
-        <v>0.1459667932409548</v>
+        <v>0.1734522490154458</v>
       </c>
       <c r="Q13">
-        <v>4.850270668388023</v>
+        <v>8.616103472596668</v>
       </c>
       <c r="R13">
-        <v>4.850270668388023</v>
+        <v>77.54493125337</v>
       </c>
       <c r="S13">
-        <v>0.0005136406150926203</v>
+        <v>0.0008266879457045196</v>
       </c>
       <c r="T13">
-        <v>0.0005136406150926203</v>
+        <v>0.0008266879457045192</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.901845975473297</v>
+        <v>1.619322333333334</v>
       </c>
       <c r="H14">
-        <v>0.901845975473297</v>
+        <v>4.857967</v>
       </c>
       <c r="I14">
-        <v>0.0005217783591778975</v>
+        <v>0.0009082937114963446</v>
       </c>
       <c r="J14">
-        <v>0.0005217783591778975</v>
+        <v>0.0009082937114963446</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.0215948300135</v>
+        <v>4.166450999999999</v>
       </c>
       <c r="N14">
-        <v>4.0215948300135</v>
+        <v>12.499353</v>
       </c>
       <c r="O14">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="P14">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="Q14">
-        <v>3.626859112431893</v>
+        <v>6.746827155039</v>
       </c>
       <c r="R14">
-        <v>3.626859112431893</v>
+        <v>60.721444395351</v>
       </c>
       <c r="S14">
-        <v>0.0003840821003053265</v>
+        <v>0.0006473367803162815</v>
       </c>
       <c r="T14">
-        <v>0.0003840821003053265</v>
+        <v>0.0006473367803162815</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.901845975473297</v>
+        <v>1.619322333333334</v>
       </c>
       <c r="H15">
-        <v>0.901845975473297</v>
+        <v>4.857967</v>
       </c>
       <c r="I15">
-        <v>0.0005217783591778975</v>
+        <v>0.0009082937114963446</v>
       </c>
       <c r="J15">
-        <v>0.0005217783591778975</v>
+        <v>0.0009082937114963446</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.644301296230715</v>
+        <v>0.6655859999999999</v>
       </c>
       <c r="N15">
-        <v>0.644301296230715</v>
+        <v>1.996758</v>
       </c>
       <c r="O15">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="P15">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="Q15">
-        <v>0.5810605309978989</v>
+        <v>1.077798274554</v>
       </c>
       <c r="R15">
-        <v>0.5810605309978989</v>
+        <v>9.700184470986001</v>
       </c>
       <c r="S15">
-        <v>6.153394500084602E-05</v>
+        <v>0.0001034113441544356</v>
       </c>
       <c r="T15">
-        <v>6.153394500084602E-05</v>
+        <v>0.0001034113441544356</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.901845975473297</v>
+        <v>1.619322333333334</v>
       </c>
       <c r="H16">
-        <v>0.901845975473297</v>
+        <v>4.857967</v>
       </c>
       <c r="I16">
-        <v>0.0005217783591778975</v>
+        <v>0.0009082937114963446</v>
       </c>
       <c r="J16">
-        <v>0.0005217783591778975</v>
+        <v>0.0009082937114963446</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.797470039517346</v>
+        <v>1.01401</v>
       </c>
       <c r="N16">
-        <v>0.797470039517346</v>
+        <v>3.04203</v>
       </c>
       <c r="O16">
-        <v>0.1459667932409548</v>
+        <v>0.1734522490154458</v>
       </c>
       <c r="P16">
-        <v>0.1459667932409548</v>
+        <v>0.1734522490154458</v>
       </c>
       <c r="Q16">
-        <v>0.7191951456992496</v>
+        <v>1.642009039223334</v>
       </c>
       <c r="R16">
-        <v>0.7191951456992496</v>
+        <v>14.77808135301</v>
       </c>
       <c r="S16">
-        <v>7.616231387172483E-05</v>
+        <v>0.0001575455870256275</v>
       </c>
       <c r="T16">
-        <v>7.616231387172483E-05</v>
+        <v>0.0001575455870256275</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>176.343096993437</v>
+        <v>196.5440926666667</v>
       </c>
       <c r="H17">
-        <v>176.343096993437</v>
+        <v>589.632278</v>
       </c>
       <c r="I17">
-        <v>0.1020263041627431</v>
+        <v>0.1102435010782627</v>
       </c>
       <c r="J17">
-        <v>0.1020263041627431</v>
+        <v>0.1102435010782627</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.0215948300135</v>
+        <v>4.166450999999999</v>
       </c>
       <c r="N17">
-        <v>4.0215948300135</v>
+        <v>12.499353</v>
       </c>
       <c r="O17">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="P17">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="Q17">
-        <v>709.1804871773754</v>
+        <v>818.8913314351259</v>
       </c>
       <c r="R17">
-        <v>709.1804871773754</v>
+        <v>7370.021982916134</v>
       </c>
       <c r="S17">
-        <v>0.07510176782907942</v>
+        <v>0.07857003977406074</v>
       </c>
       <c r="T17">
-        <v>0.07510176782907942</v>
+        <v>0.07857003977406074</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>176.343096993437</v>
+        <v>196.5440926666667</v>
       </c>
       <c r="H18">
-        <v>176.343096993437</v>
+        <v>589.632278</v>
       </c>
       <c r="I18">
-        <v>0.1020263041627431</v>
+        <v>0.1102435010782627</v>
       </c>
       <c r="J18">
-        <v>0.1020263041627431</v>
+        <v>0.1102435010782627</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.644301296230715</v>
+        <v>0.6655859999999999</v>
       </c>
       <c r="N18">
-        <v>0.644301296230715</v>
+        <v>1.996758</v>
       </c>
       <c r="O18">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="P18">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="Q18">
-        <v>113.6180859742102</v>
+        <v>130.816996461636</v>
       </c>
       <c r="R18">
-        <v>113.6180859742102</v>
+        <v>1177.352968154724</v>
       </c>
       <c r="S18">
-        <v>0.01203208388880181</v>
+        <v>0.01255147810284052</v>
       </c>
       <c r="T18">
-        <v>0.01203208388880181</v>
+        <v>0.01255147810284052</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>176.343096993437</v>
+        <v>196.5440926666667</v>
       </c>
       <c r="H19">
-        <v>176.343096993437</v>
+        <v>589.632278</v>
       </c>
       <c r="I19">
-        <v>0.1020263041627431</v>
+        <v>0.1102435010782627</v>
       </c>
       <c r="J19">
-        <v>0.1020263041627431</v>
+        <v>0.1102435010782627</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.797470039517346</v>
+        <v>1.01401</v>
       </c>
       <c r="N19">
-        <v>0.797470039517346</v>
+        <v>3.04203</v>
       </c>
       <c r="O19">
-        <v>0.1459667932409548</v>
+        <v>0.1734522490154458</v>
       </c>
       <c r="P19">
-        <v>0.1459667932409548</v>
+        <v>0.1734522490154458</v>
       </c>
       <c r="Q19">
-        <v>140.6283365279674</v>
+        <v>199.2976754049267</v>
       </c>
       <c r="R19">
-        <v>140.6283365279674</v>
+        <v>1793.67907864434</v>
       </c>
       <c r="S19">
-        <v>0.0148924524448619</v>
+        <v>0.01912198320136138</v>
       </c>
       <c r="T19">
-        <v>0.0148924524448619</v>
+        <v>0.01912198320136138</v>
       </c>
     </row>
   </sheetData>
